--- a/scripts/november.xlsx
+++ b/scripts/november.xlsx
@@ -637,18 +637,14 @@
       <c r="O3" s="2" t="n">
         <v>0.11</v>
       </c>
-      <c r="P3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="P3" s="1" t="n"/>
       <c r="Q3" s="1" t="n">
         <v>99.40000000000001</v>
       </c>
       <c r="R3" s="1" t="n">
         <v>98.98999999999999</v>
       </c>
-      <c r="S3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="S3" s="3" t="n"/>
       <c r="T3" s="4" t="inlineStr">
         <is>
           <t>16:59 ET</t>
@@ -974,9 +970,7 @@
       <c r="N8" s="1" t="n">
         <v>-0.75</v>
       </c>
-      <c r="O8" s="2" t="n">
-        <v/>
-      </c>
+      <c r="O8" s="2" t="n"/>
       <c r="P8" s="1" t="n">
         <v>25095.25</v>
       </c>
@@ -1382,9 +1376,7 @@
       <c r="N14" s="1" t="n">
         <v>-0.004</v>
       </c>
-      <c r="O14" s="2" t="n">
-        <v/>
-      </c>
+      <c r="O14" s="2" t="n"/>
       <c r="P14" s="1" t="n">
         <v>154.547</v>
       </c>
@@ -1903,18 +1895,14 @@
       <c r="D3" s="2" t="n">
         <v>0.23</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="E3" s="1" t="n"/>
       <c r="F3" s="1" t="n">
         <v>99.59999999999999</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>99.25</v>
       </c>
-      <c r="H3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="H3" s="3" t="n"/>
       <c r="I3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -1936,18 +1924,14 @@
       <c r="O3" s="2" t="n">
         <v>-0.01</v>
       </c>
-      <c r="P3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="P3" s="1" t="n"/>
       <c r="Q3" s="1" t="n">
         <v>99.66</v>
       </c>
       <c r="R3" s="1" t="n">
         <v>99.40000000000001</v>
       </c>
-      <c r="S3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="S3" s="3" t="n"/>
       <c r="T3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -1969,18 +1953,14 @@
       <c r="Z3" s="2" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="AA3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AA3" s="1" t="n"/>
       <c r="AB3" s="1" t="n">
         <v>100.24</v>
       </c>
       <c r="AC3" s="1" t="n">
         <v>99.48999999999999</v>
       </c>
-      <c r="AD3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AD3" s="3" t="n"/>
       <c r="AE3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -2002,18 +1982,14 @@
       <c r="AK3" s="2" t="n">
         <v>-0.02</v>
       </c>
-      <c r="AL3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AL3" s="1" t="n"/>
       <c r="AM3" s="1" t="n">
         <v>100.36</v>
       </c>
       <c r="AN3" s="1" t="n">
         <v>100.03</v>
       </c>
-      <c r="AO3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AO3" s="3" t="n"/>
       <c r="AP3" s="4" t="inlineStr">
         <is>
           <t>17:39 ET</t>
@@ -4648,24 +4624,16 @@
           <t>100.18</t>
         </is>
       </c>
-      <c r="C3" s="1" t="n">
-        <v/>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v/>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="C3" s="1" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="1" t="n"/>
       <c r="F3" s="1" t="n">
         <v>100.3</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>100.01</v>
       </c>
-      <c r="H3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="H3" s="3" t="n"/>
       <c r="I3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -4687,18 +4655,14 @@
       <c r="O3" s="2" t="n">
         <v>-0.34</v>
       </c>
-      <c r="P3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="P3" s="1" t="n"/>
       <c r="Q3" s="1" t="n">
         <v>100.26</v>
       </c>
       <c r="R3" s="1" t="n">
         <v>99.65000000000001</v>
       </c>
-      <c r="S3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="S3" s="3" t="n"/>
       <c r="T3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -4720,18 +4684,14 @@
       <c r="Z3" s="2" t="n">
         <v>-0.08</v>
       </c>
-      <c r="AA3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AA3" s="1" t="n"/>
       <c r="AB3" s="1" t="n">
         <v>99.95999999999999</v>
       </c>
       <c r="AC3" s="1" t="n">
         <v>99.56</v>
       </c>
-      <c r="AD3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AD3" s="3" t="n"/>
       <c r="AE3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -4762,9 +4722,7 @@
       <c r="AN3" s="1" t="n">
         <v>99.41</v>
       </c>
-      <c r="AO3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AO3" s="3" t="n"/>
       <c r="AP3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -4786,18 +4744,14 @@
       <c r="AV3" s="2" t="n">
         <v>-0.05</v>
       </c>
-      <c r="AW3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AW3" s="1" t="n"/>
       <c r="AX3" s="1" t="n">
         <v>99.81999999999999</v>
       </c>
       <c r="AY3" s="1" t="n">
         <v>99.38</v>
       </c>
-      <c r="AZ3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AZ3" s="3" t="n"/>
       <c r="BA3" s="4" t="inlineStr">
         <is>
           <t>16:59 ET</t>
